--- a/StructureDefinition-ext-R5-DeviceDefinition.chargeItem.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.chargeItem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.chargeItem` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.chargeItem` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.chargeItem` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.chargeItem.chargeItemCode` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.chargeItemCode` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.chargeItem.chargeItemCode` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.id</t>
@@ -460,7 +460,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.extension:concept.id</t>
@@ -491,7 +491,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -540,7 +540,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.chargeItem.count` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.count` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.chargeItem.count` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:count.id</t>
@@ -572,7 +572,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.chargeItem.effectivePeriod` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.effectivePeriod` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.chargeItem.effectivePeriod` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.id</t>
@@ -604,7 +604,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.chargeItem.useContext` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.useContext` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.chargeItem.useContext` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:useContext.id</t>
@@ -960,7 +960,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="143.2890625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="152.00390625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.chargeItem.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.chargeItem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.chargeItem` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.chargeItem` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.chargeItem` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.chargeItem.chargeItemCode` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.chargeItemCode` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.chargeItem.chargeItemCode` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.id</t>
@@ -459,8 +459,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.extension:concept.id</t>
@@ -491,8 +491,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.extension:reference.id</t>
@@ -517,6 +517,9 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem.chargeItemCode</t>
+  </si>
+  <si>
     <t>Extension.extension:chargeItemCode.value[x]</t>
   </si>
   <si>
@@ -540,7 +543,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.chargeItem.count` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.count` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.chargeItem.count` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:count.id</t>
@@ -550,6 +553,9 @@
   </si>
   <si>
     <t>Extension.extension:count.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem.count</t>
   </si>
   <si>
     <t>Extension.extension:count.value[x]</t>
@@ -572,7 +578,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.chargeItem.effectivePeriod` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.effectivePeriod` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.chargeItem.effectivePeriod` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.id</t>
@@ -582,6 +588,9 @@
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem.effectivePeriod</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.value[x]</t>
@@ -604,7 +613,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.chargeItem.useContext` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.useContext` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.chargeItem.useContext` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:useContext.id</t>
@@ -614,6 +623,9 @@
   </si>
   <si>
     <t>Extension.extension:useContext.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem.useContext</t>
   </si>
   <si>
     <t>Extension.extension:useContext.value[x]</t>
@@ -960,7 +972,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="152.00390625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="146.01953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3333,7 +3345,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3395,10 +3407,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3421,7 +3433,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>132</v>
@@ -3498,13 +3510,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3529,14 +3541,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3605,7 +3617,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3708,7 +3720,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3813,7 +3825,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>159</v>
@@ -3856,7 +3868,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3918,10 +3930,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3944,13 +3956,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4021,13 +4033,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4052,14 +4064,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4128,7 +4140,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4231,7 +4243,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4336,7 +4348,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>159</v>
@@ -4379,7 +4391,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4441,10 +4453,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4467,13 +4479,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4544,13 +4556,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4575,14 +4587,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4651,7 +4663,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -4754,7 +4766,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -4859,7 +4871,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>159</v>
@@ -4902,7 +4914,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4964,10 +4976,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4990,13 +5002,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5198,7 +5210,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>132</v>

--- a/StructureDefinition-ext-R5-DeviceDefinition.chargeItem.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.chargeItem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -459,8 +459,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.extension:concept.id</t>
@@ -491,8 +490,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.extension:reference.id</t>
@@ -507,7 +505,7 @@
     <t>Extension.extension:chargeItemCode.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItemDefinition|0.0.1-snapshot-3|ChargeItemDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItemDefinition|ChargeItemDefinition)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-DeviceDefinition.chargeItem.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.chargeItem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="193">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>The code or reference for the charge item.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.chargeItem.chargeItemCode` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.chargeItemCode` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.chargeItem.chargeItemCode` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.id</t>
@@ -459,7 +458,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.extension:concept.id</t>
@@ -490,7 +489,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.extension:reference.id</t>
@@ -505,7 +504,7 @@
     <t>Extension.extension:chargeItemCode.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItemDefinition|ChargeItemDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItemDefinition|0.0.1-snapshot-3|ChargeItemDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -513,9 +512,6 @@
   </si>
   <si>
     <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem.chargeItemCode</t>
   </si>
   <si>
     <t>Extension.extension:chargeItemCode.value[x]</t>
@@ -540,8 +536,7 @@
     <t>Coefficient applicable to the billing code.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.chargeItem.count` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.count` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.chargeItem.count` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:count.id</t>
@@ -551,9 +546,6 @@
   </si>
   <si>
     <t>Extension.extension:count.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem.count</t>
   </si>
   <si>
     <t>Extension.extension:count.value[x]</t>
@@ -575,8 +567,7 @@
     <t>A specific time period in which this charge item applies.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.chargeItem.effectivePeriod` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.effectivePeriod` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.chargeItem.effectivePeriod` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.id</t>
@@ -586,9 +577,6 @@
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem.effectivePeriod</t>
   </si>
   <si>
     <t>Extension.extension:effectivePeriod.value[x]</t>
@@ -610,8 +598,7 @@
     <t>The context to which this charge item applies.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.chargeItem.useContext` is part of an existing definition because parent element `DeviceDefinition.chargeItem` requires a cross-version extension.
-Element `DeviceDefinition.chargeItem.useContext` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.chargeItem.useContext` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:useContext.id</t>
@@ -621,9 +608,6 @@
   </si>
   <si>
     <t>Extension.extension:useContext.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.chargeItem.useContext</t>
   </si>
   <si>
     <t>Extension.extension:useContext.value[x]</t>
@@ -3343,7 +3327,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3405,10 +3389,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3431,7 +3415,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>132</v>
@@ -3508,13 +3492,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3539,14 +3523,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3615,7 +3599,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3718,7 +3702,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3823,7 +3807,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>159</v>
@@ -3866,7 +3850,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3928,10 +3912,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3954,13 +3938,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4031,13 +4015,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4062,14 +4046,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4138,7 +4122,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4241,7 +4225,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4346,7 +4330,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>159</v>
@@ -4389,7 +4373,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4451,10 +4435,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4477,13 +4461,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4554,13 +4538,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4585,14 +4569,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4661,7 +4645,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -4764,7 +4748,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -4869,7 +4853,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>159</v>
@@ -4912,7 +4896,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4974,10 +4958,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5000,13 +4984,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5208,7 +5192,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>132</v>
